--- a/templates/demo_kg.xlsx
+++ b/templates/demo_kg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,50 @@
   </si>
   <si>
     <t>expect_answer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用例编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试语句</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期望答复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要保留第一行表头，删除红色字体</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -37,7 +81,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,9 +92,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -195,6 +244,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -502,51 +557,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,101 +608,107 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -999,23 +1057,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1111,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1051,7 +1128,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
